--- a/Simple steganography/tkb.xlsx
+++ b/Simple steganography/tkb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D17819-5A8F-4C38-B659-5685C5C289C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D772E4-06BC-41F2-BAF3-71B7DD74CC32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{39FB632B-1583-4DC8-9492-F012810B95B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>T2</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Hệ thống máy tính (19_4)</t>
-  </si>
-  <si>
-    <t>Java (19_1)</t>
   </si>
   <si>
     <t>OOP (19_2)</t>
@@ -248,12 +245,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -270,25 +261,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,170 +605,163 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3" t="s">
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+      <c r="A3" s="11">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
+      <c r="A4" s="11">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D7:D10"/>
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="D4:D6"/>
   </mergeCells>
